--- a/docs/mcode-r4/obf-EncounterOrEpisode.xlsx
+++ b/docs/mcode-r4/obf-EncounterOrEpisode.xlsx
@@ -320,7 +320,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Status-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Status-extension}
 </t>
   </si>
   <si>
@@ -330,7 +330,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Identifier-extension}
 </t>
   </si>
   <si>
@@ -340,7 +340,7 @@
     <t>statushistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-StatusHistory-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-StatusHistory-extension}
 </t>
   </si>
   <si>
@@ -350,7 +350,7 @@
     <t>timeperiod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-TimePeriod-extension}
 </t>
   </si>
   <si>
@@ -361,7 +361,7 @@
     <t>encounterdiagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-EncounterDiagnosis-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-EncounterDiagnosis-extension}
 </t>
   </si>
   <si>
@@ -371,7 +371,7 @@
     <t>subjectofrecord</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-SubjectOfRecord-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-SubjectOfRecord-extension}
 </t>
   </si>
   <si>
@@ -419,7 +419,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/StructureDefinition/obf-SubjectOfRecord-extension</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/obf-SubjectOfRecord-extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -428,11 +428,11 @@
     <t>DomainResource.extension.valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Patient)
 </t>
   </si>
   <si>
-    <t>Patient</t>
+    <t>Patient: A person in the role of a patient</t>
   </si>
   <si>
     <t>A person in the role of a patient. Sometimes, the patient is not the subject of information in a clinical statement where the Patient is the SubjectOfRecord.
@@ -445,7 +445,7 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Type-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Type-extension}
 </t>
   </si>
   <si>
@@ -455,7 +455,7 @@
     <t>organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Organization-extension}
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>basedon</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-BasedOn-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-BasedOn-extension}
 </t>
   </si>
   <si>
